--- a/program_analysis.xlsx
+++ b/program_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conso\OneDrive\Documents\GitHub\robot-barriers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C22155-363F-47B4-B6DD-6F6D8DE8ED91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A9F9D9-8DDA-4F4B-B65A-2BA95EEAFA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="20730" windowHeight="11040" xr2:uid="{C968F3EF-745C-4BF7-B87A-C3BC1FFC33A6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C968F3EF-745C-4BF7-B87A-C3BC1FFC33A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -306,13 +306,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4303,55 +4303,55 @@
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="10">
         <f>B37/35</f>
         <v>1</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="10">
         <f t="shared" ref="C38:J38" si="2">C37/35</f>
         <v>1</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="10">
         <f t="shared" si="2"/>
         <v>0.88571428571428568</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G38" s="10">
         <f t="shared" si="2"/>
         <v>0.65714285714285714</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H38" s="10">
         <f t="shared" si="2"/>
         <v>0.54285714285714282</v>
       </c>
-      <c r="I38" s="11">
+      <c r="I38" s="10">
         <f t="shared" si="2"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="J38" s="11">
+      <c r="J38" s="10">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="P39" s="9" t="s">
+      <c r="P39" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
-      <c r="U39" s="9"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="P40">
@@ -4408,27 +4408,27 @@
       <c r="O42" t="s">
         <v>49</v>
       </c>
-      <c r="P42" s="11">
+      <c r="P42" s="10">
         <f>P41/$O$41</f>
         <v>8.5714285714285715E-2</v>
       </c>
-      <c r="Q42" s="11">
+      <c r="Q42" s="10">
         <f t="shared" ref="Q42:U42" si="3">Q41/$O$41</f>
         <v>0.22857142857142856</v>
       </c>
-      <c r="R42" s="11">
+      <c r="R42" s="10">
         <f t="shared" si="3"/>
         <v>0.17142857142857143</v>
       </c>
-      <c r="S42" s="11">
+      <c r="S42" s="10">
         <f t="shared" si="3"/>
         <v>8.5714285714285715E-2</v>
       </c>
-      <c r="T42" s="11">
+      <c r="T42" s="10">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="U42" s="11">
+      <c r="U42" s="10">
         <f t="shared" si="3"/>
         <v>0.22857142857142856</v>
       </c>
